--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -2097,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AL28" sqref="AL28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2535,8 +2535,8 @@
       <c r="W27" s="45">
         <v>457457</v>
       </c>
-      <c r="X27" s="45" t="s">
-        <v>150</v>
+      <c r="X27" s="45">
+        <v>100</v>
       </c>
       <c r="Y27" s="45">
         <v>345345</v>

--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\mercury\mercury\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="9510"/>
+    <workbookView xWindow="2400" yWindow="180" windowWidth="29860" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +15,17 @@
     <definedName name="kitused">Sheet2!$E$1:$E$17</definedName>
     <definedName name="Libtypes">Sheet2!$A$1:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="185">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -260,7 +260,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>If samples are human and No IRB approval is needed, please indicate why in Col C "IRB Number" ie. IRB Exempt, IRB approval not needed for purchased or public domain TC cells</t>
     </r>
@@ -473,9 +472,6 @@
     <t>Nextera DNA Sample Prep Kit</t>
   </si>
   <si>
-    <t>0504001179</t>
-  </si>
-  <si>
     <t>DDDSS2244</t>
   </si>
   <si>
@@ -491,21 +487,12 @@
     <t>Microsporidia_RNASeq_Sanscrainte</t>
   </si>
   <si>
-    <t>CIP_Colon_EPI_WEX_B2_B3_130220</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Broad.</t>
-  </si>
-  <si>
-    <t>Charles St</t>
-  </si>
-  <si>
     <t>Cambridge</t>
   </si>
   <si>
@@ -530,10 +517,79 @@
     <t>Test Species</t>
   </si>
   <si>
-    <t>Test N</t>
-  </si>
-  <si>
     <t>WholeGenomeShotgun.Resequencing</t>
+  </si>
+  <si>
+    <t>Broad</t>
+  </si>
+  <si>
+    <t>320 Charles St</t>
+  </si>
+  <si>
+    <t>02142</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>IRB Exempt</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>HG18</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>Yes Later</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sarah Youngs group</t>
+  </si>
+  <si>
+    <t>Patient X</t>
+  </si>
+  <si>
+    <t>NovaSeq</t>
+  </si>
+  <si>
+    <t>DDDSS2245</t>
+  </si>
+  <si>
+    <t>Patient Y</t>
+  </si>
+  <si>
+    <t>kit1</t>
+  </si>
+  <si>
+    <t>kit2</t>
+  </si>
+  <si>
+    <t>Some info</t>
+  </si>
+  <si>
+    <t>Some enzyme</t>
+  </si>
+  <si>
+    <t>P5_abc_P7_def</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -543,7 +599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -808,6 +864,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1023,16 +1085,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,116 +1207,116 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1263,7 +1325,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1274,12 +1336,12 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1387,8 +1449,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1547,14 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="107">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="84"/>
@@ -1619,6 +1686,12 @@
     <cellStyle name="Calculation 2" xfId="30"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -1851,7 +1924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1886,7 +1959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2097,50 +2170,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="21" customWidth="1"/>
-    <col min="27" max="27" width="40.7109375" customWidth="1"/>
-    <col min="28" max="31" width="40.85546875" customWidth="1"/>
-    <col min="32" max="32" width="28.28515625" style="21" customWidth="1"/>
-    <col min="33" max="35" width="40.85546875" customWidth="1"/>
-    <col min="36" max="36" width="40.85546875" style="21" customWidth="1"/>
-    <col min="37" max="37" width="40.85546875" customWidth="1"/>
-    <col min="38" max="50" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="21" customWidth="1"/>
+    <col min="27" max="27" width="40.6640625" customWidth="1"/>
+    <col min="28" max="31" width="40.83203125" customWidth="1"/>
+    <col min="32" max="32" width="28.33203125" style="21" customWidth="1"/>
+    <col min="33" max="35" width="40.83203125" customWidth="1"/>
+    <col min="36" max="36" width="40.83203125" style="21" customWidth="1"/>
+    <col min="37" max="37" width="40.83203125" customWidth="1"/>
+    <col min="38" max="50" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27">
       <c r="Z1" s="35"/>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="35"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27">
       <c r="Z3" s="35"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2149,134 +2222,134 @@
       </c>
       <c r="Z4" s="35"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F5" s="65"/>
       <c r="Z5" s="35"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Z6" s="35"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Z7" s="35"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Z8" s="35"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="47"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27">
       <c r="C10" s="45"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Z11" s="35"/>
       <c r="AA11" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Z12" s="35"/>
       <c r="AA12" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27">
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="48">
-        <v>2215</v>
+      <c r="C13" s="48" t="s">
+        <v>163</v>
       </c>
       <c r="Z13" s="35"/>
       <c r="AA13" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z14" s="35"/>
       <c r="AA14" s="38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27">
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z15" s="35"/>
       <c r="AA15" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27">
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Z16" s="35"/>
       <c r="AA16" s="59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="C17" s="51"/>
       <c r="Z17" s="35"/>
       <c r="AA17" s="59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -2286,47 +2359,47 @@
       <c r="Z18" s="35"/>
       <c r="AA18" s="39"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Z19" s="35"/>
       <c r="AA19" s="39"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Z20" s="35"/>
       <c r="AA20" s="39"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Z21" s="35"/>
       <c r="AA21" s="39"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="109" t="s">
         <v>164</v>
       </c>
       <c r="Z22" s="35"/>
       <c r="AA22" s="39"/>
     </row>
-    <row r="23" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="2" customFormat="1">
       <c r="A23" s="21"/>
       <c r="B23" s="34" t="s">
         <v>75</v>
@@ -2337,7 +2410,7 @@
       <c r="AF23" s="21"/>
       <c r="AJ23" s="21"/>
     </row>
-    <row r="24" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="2" customFormat="1">
       <c r="A24" s="21"/>
       <c r="B24" s="3"/>
       <c r="C24" s="28"/>
@@ -2346,7 +2419,7 @@
       <c r="AF24" s="21"/>
       <c r="AJ24" s="21"/>
     </row>
-    <row r="25" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="2" customFormat="1">
       <c r="A25" s="41" t="s">
         <v>72</v>
       </c>
@@ -2358,7 +2431,7 @@
       <c r="AF25" s="21"/>
       <c r="AJ25" s="21"/>
     </row>
-    <row r="26" spans="1:40" s="15" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="15" customFormat="1" ht="78.75" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2471,159 +2544,219 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="109" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="101">
         <v>1</v>
       </c>
-      <c r="B27" s="102">
-        <v>3444</v>
+      <c r="B27" s="102" t="s">
+        <v>176</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="104">
-        <v>3</v>
-      </c>
-      <c r="E27" s="104">
-        <v>4</v>
-      </c>
-      <c r="F27" s="104">
-        <v>5</v>
+        <v>165</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>184</v>
       </c>
       <c r="G27" s="104">
         <v>6</v>
       </c>
       <c r="H27" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="104">
-        <v>8</v>
-      </c>
-      <c r="J27" s="104" t="s">
+      <c r="K27" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="104">
-        <v>23</v>
-      </c>
-      <c r="M27" s="104" t="s">
+      <c r="N27" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="104" t="s">
-        <v>149</v>
-      </c>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="O27" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P27" s="104" t="s">
+        <v>164</v>
+      </c>
       <c r="Q27" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27" s="45">
         <v>1000</v>
       </c>
       <c r="S27" s="105">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="T27" s="106">
-        <v>4444</v>
-      </c>
-      <c r="U27" s="45"/>
-      <c r="V27" s="107">
-        <v>2112</v>
+        <v>2</v>
+      </c>
+      <c r="U27" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="V27" s="107" t="s">
+        <v>182</v>
       </c>
       <c r="W27" s="45">
-        <v>457457</v>
+        <v>77</v>
       </c>
       <c r="X27" s="45">
         <v>100</v>
       </c>
-      <c r="Y27" s="45">
-        <v>345345</v>
-      </c>
-      <c r="Z27" s="45">
-        <v>345345</v>
+      <c r="Y27" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z27" s="102" t="s">
+        <v>167</v>
       </c>
       <c r="AA27" s="45">
-        <v>345345</v>
+        <v>151</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC27" s="45">
-        <v>345345</v>
+        <v>149</v>
+      </c>
+      <c r="AC27" s="102" t="s">
+        <v>168</v>
       </c>
       <c r="AD27" s="45">
-        <v>345345</v>
-      </c>
-      <c r="AE27" s="45">
-        <v>345345</v>
-      </c>
-      <c r="AF27" s="45">
-        <v>345345</v>
-      </c>
-      <c r="AG27" s="45">
-        <v>345345</v>
-      </c>
-      <c r="AH27" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF27" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG27" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH27" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI27" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ27" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK27" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL27" s="108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="101">
+        <v>1</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="45">
+        <v>1000</v>
+      </c>
+      <c r="S28" s="105">
+        <v>76</v>
+      </c>
+      <c r="T28" s="106"/>
+      <c r="U28" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="V28" s="107"/>
+      <c r="W28" s="45">
+        <v>77</v>
+      </c>
+      <c r="X28" s="45">
+        <v>100</v>
+      </c>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA28" s="45">
         <v>151</v>
       </c>
-      <c r="AI27" s="108">
-        <v>444</v>
-      </c>
-      <c r="AJ27" s="108">
-        <v>333</v>
-      </c>
-      <c r="AK27" s="108">
-        <v>3333</v>
-      </c>
-      <c r="AL27" s="109" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
-    </row>
-    <row r="29" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AB28" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC28" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD28" s="45">
+        <v>8</v>
+      </c>
+      <c r="AE28" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF28" s="102" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG28" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI28" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ28" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK28" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL28" s="108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="14">
       <c r="A29" s="53"/>
       <c r="B29" s="81"/>
       <c r="C29" s="54"/>
@@ -2665,7 +2798,7 @@
       <c r="AM29" s="52"/>
       <c r="AN29" s="52"/>
     </row>
-    <row r="30" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A30" s="53"/>
       <c r="B30" s="81"/>
       <c r="C30" s="54"/>
@@ -2707,7 +2840,7 @@
       <c r="AM30" s="52"/>
       <c r="AN30" s="52"/>
     </row>
-    <row r="31" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A31" s="53"/>
       <c r="B31" s="82"/>
       <c r="C31" s="54"/>
@@ -2749,7 +2882,7 @@
       <c r="AM31" s="52"/>
       <c r="AN31" s="52"/>
     </row>
-    <row r="32" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A32" s="53"/>
       <c r="B32" s="82"/>
       <c r="C32" s="54"/>
@@ -2791,7 +2924,7 @@
       <c r="AM32" s="52"/>
       <c r="AN32" s="52"/>
     </row>
-    <row r="33" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A33" s="53"/>
       <c r="B33" s="82"/>
       <c r="C33" s="85"/>
@@ -2833,7 +2966,7 @@
       <c r="AM33" s="52"/>
       <c r="AN33" s="52"/>
     </row>
-    <row r="34" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A34" s="53"/>
       <c r="B34" s="82"/>
       <c r="C34" s="54"/>
@@ -2875,7 +3008,7 @@
       <c r="AM34" s="52"/>
       <c r="AN34" s="52"/>
     </row>
-    <row r="35" spans="1:40" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="66" customFormat="1" ht="14">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
       <c r="C35" s="93"/>
@@ -2914,7 +3047,7 @@
       <c r="AJ35" s="61"/>
       <c r="AK35" s="61"/>
     </row>
-    <row r="36" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="1" customFormat="1" ht="14">
       <c r="A36" s="12"/>
       <c r="B36" s="87"/>
       <c r="C36" s="13"/>
@@ -2956,7 +3089,7 @@
       <c r="AM36" s="52"/>
       <c r="AN36" s="52"/>
     </row>
-    <row r="37" spans="1:40" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" s="16" customFormat="1" ht="14">
       <c r="A37" s="27"/>
       <c r="B37" s="89"/>
       <c r="C37" s="29"/>
@@ -2998,7 +3131,7 @@
       <c r="AM37" s="58"/>
       <c r="AN37" s="58"/>
     </row>
-    <row r="38" spans="1:40" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" s="16" customFormat="1" ht="14">
       <c r="A38" s="26"/>
       <c r="B38" s="25"/>
       <c r="C38" s="24"/>
@@ -3017,7 +3150,7 @@
       <c r="X38" s="17"/>
       <c r="Z38" s="21"/>
     </row>
-    <row r="39" spans="1:40" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" s="16" customFormat="1" ht="14">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="23"/>
@@ -3034,22 +3167,22 @@
       <c r="X39" s="17"/>
       <c r="Z39" s="21"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U28:U39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U29:U39">
       <formula1>kitused</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28:K39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K29:K39">
       <formula1>Libtypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O27:O28">
       <formula1>kitused</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K27:K28">
       <formula1>Libtypes</formula1>
     </dataValidation>
   </dataValidations>
@@ -3057,9 +3190,14 @@
     <hyperlink ref="C16" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3071,9 +3209,9 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -3081,7 +3219,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -3089,7 +3227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3097,7 +3235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -3105,7 +3243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -3113,7 +3251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -3121,7 +3259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -3129,7 +3267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -3137,7 +3275,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -3145,7 +3283,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -3153,7 +3291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -3161,7 +3299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -3169,7 +3307,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -3193,7 +3331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
         <v>73</v>
       </c>
@@ -3201,7 +3339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -3209,19 +3347,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3233,49 +3376,49 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="111"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="110"/>
+    </row>
+    <row r="2" spans="1:2" ht="14">
       <c r="A2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="111"/>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="110"/>
+    </row>
+    <row r="3" spans="1:2" ht="14">
       <c r="A3" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="69"/>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+    <row r="4" spans="1:2" ht="14">
+      <c r="A4" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="112"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="B4" s="111"/>
+    </row>
+    <row r="5" spans="1:2" ht="14">
+      <c r="A5" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="112"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113" t="s">
+      <c r="B5" s="111"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="113"/>
-    </row>
-    <row r="7" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="112"/>
+    </row>
+    <row r="7" spans="1:2" ht="13" thickBot="1">
       <c r="A7" s="71" t="s">
         <v>105</v>
       </c>
@@ -3283,7 +3426,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="13" thickBot="1">
       <c r="A8" s="73" t="s">
         <v>107</v>
       </c>
@@ -3291,7 +3434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="13" thickBot="1">
       <c r="A9" s="73" t="s">
         <v>109</v>
       </c>
@@ -3299,7 +3442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="13" thickBot="1">
       <c r="A10" s="73" t="s">
         <v>111</v>
       </c>
@@ -3307,7 +3450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="13" thickBot="1">
       <c r="A11" s="73" t="s">
         <v>113</v>
       </c>
@@ -3315,7 +3458,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13" thickBot="1">
       <c r="A12" s="73" t="s">
         <v>115</v>
       </c>
@@ -3323,7 +3466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13" thickBot="1">
       <c r="A13" s="73" t="s">
         <v>117</v>
       </c>
@@ -3331,7 +3474,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13" thickBot="1">
       <c r="A14" s="73" t="s">
         <v>119</v>
       </c>
@@ -3339,7 +3482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13" thickBot="1">
       <c r="A15" s="73" t="s">
         <v>121</v>
       </c>
@@ -3347,7 +3490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13" thickBot="1">
       <c r="A16" s="73" t="s">
         <v>123</v>
       </c>
@@ -3355,7 +3498,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="13" thickBot="1">
       <c r="A17" s="73" t="s">
         <v>125</v>
       </c>
@@ -3363,7 +3506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="13" thickBot="1">
       <c r="A18" s="73" t="s">
         <v>127</v>
       </c>
@@ -3371,7 +3514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="13" thickBot="1">
       <c r="A19" s="73" t="s">
         <v>129</v>
       </c>
@@ -3379,11 +3522,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="69"/>
       <c r="B20" s="69"/>
     </row>
-    <row r="21" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="13" thickBot="1">
       <c r="A21" s="75" t="s">
         <v>131</v>
       </c>
@@ -3391,7 +3534,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="14">
       <c r="A22" s="77" t="s">
         <v>132</v>
       </c>
@@ -3399,13 +3542,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" thickBot="1">
       <c r="A23" s="79"/>
       <c r="B23" s="80" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14">
       <c r="A24" s="77" t="s">
         <v>135</v>
       </c>
@@ -3413,19 +3556,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="14">
       <c r="A25" s="77"/>
       <c r="B25" s="78" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1">
       <c r="A26" s="79"/>
       <c r="B26" s="80" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="14">
       <c r="A27" s="77" t="s">
         <v>139</v>
       </c>
@@ -3433,13 +3576,13 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14">
       <c r="A28" s="77"/>
       <c r="B28" s="78" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" thickBot="1">
       <c r="A29" s="79"/>
       <c r="B29" s="80" t="s">
         <v>142</v>
@@ -3453,7 +3596,12 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="180" windowWidth="29860" windowHeight="6800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="7460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Me</t>
   </si>
   <si>
-    <t>HG18</t>
-  </si>
-  <si>
     <t>ASAP</t>
   </si>
   <si>
@@ -586,10 +583,19 @@
     <t>Some enzyme</t>
   </si>
   <si>
-    <t>P5_abc_P7_def</t>
-  </si>
-  <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>4442SFF7</t>
+  </si>
+  <si>
+    <t>AGCATGGA</t>
+  </si>
+  <si>
+    <t>Illumina_P5-Lanah_P7-Caber</t>
+  </si>
+  <si>
+    <t>Plasmodium_falciparum_3D7</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1449,6 +1455,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1621,7 +1635,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="84"/>
@@ -1692,6 +1706,14 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -2170,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2185,7 +2207,7 @@
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="12.1640625" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" customWidth="1"/>
     <col min="22" max="22" width="14.5" customWidth="1"/>
@@ -2549,19 +2571,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="103" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E27" s="104" t="s">
         <v>166</v>
       </c>
       <c r="F27" s="104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G27" s="104">
         <v>6</v>
@@ -2570,7 +2592,7 @@
         <v>145</v>
       </c>
       <c r="I27" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J27" s="104" t="s">
         <v>146</v>
@@ -2579,10 +2601,10 @@
         <v>55</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M27" s="104" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="N27" s="104" t="s">
         <v>148</v>
@@ -2606,10 +2628,10 @@
         <v>2</v>
       </c>
       <c r="U27" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V27" s="107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W27" s="45">
         <v>77</v>
@@ -2618,7 +2640,7 @@
         <v>100</v>
       </c>
       <c r="Y27" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z27" s="102" t="s">
         <v>167</v>
@@ -2639,22 +2661,22 @@
         <v>169</v>
       </c>
       <c r="AF27" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG27" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AG27" s="102" t="s">
+      <c r="AH27" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="AH27" s="102" t="s">
+      <c r="AI27" s="108" t="s">
         <v>172</v>
-      </c>
-      <c r="AI27" s="108" t="s">
-        <v>173</v>
       </c>
       <c r="AJ27" s="108" t="s">
         <v>169</v>
       </c>
       <c r="AK27" s="108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL27" s="108" t="s">
         <v>160</v>
@@ -2665,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="103" t="s">
         <v>165</v>
@@ -2675,13 +2697,13 @@
       <c r="F28" s="104"/>
       <c r="G28" s="104"/>
       <c r="H28" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="104" t="s">
-        <v>178</v>
-      </c>
       <c r="J28" s="104" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>55</v>
@@ -2706,7 +2728,7 @@
       </c>
       <c r="T28" s="106"/>
       <c r="U28" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V28" s="107"/>
       <c r="W28" s="45">
@@ -2735,22 +2757,22 @@
         <v>169</v>
       </c>
       <c r="AF28" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AG28" s="102" t="s">
+      <c r="AH28" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="AH28" s="102" t="s">
+      <c r="AI28" s="108" t="s">
         <v>172</v>
-      </c>
-      <c r="AI28" s="108" t="s">
-        <v>173</v>
       </c>
       <c r="AJ28" s="108" t="s">
         <v>169</v>
       </c>
       <c r="AK28" s="108" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL28" s="108" t="s">
         <v>160</v>
@@ -3206,10 +3228,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -3373,7 +3399,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A8" sqref="A8:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>

--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28000" windowHeight="7460"/>
+    <workbookView xWindow="1720" yWindow="1160" windowWidth="17920" windowHeight="7460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t>DDDSS2244</t>
   </si>
   <si>
-    <t>4442SFF6</t>
-  </si>
-  <si>
     <t>ACAGTCATAT</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>4442SFF7</t>
-  </si>
-  <si>
     <t>AGCATGGA</t>
   </si>
   <si>
@@ -596,6 +590,12 @@
   </si>
   <si>
     <t>Plasmodium_falciparum_3D7</t>
+  </si>
+  <si>
+    <t>4442SFP6</t>
+  </si>
+  <si>
+    <t>4442SFP7</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1455,6 +1455,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1635,7 +1649,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="129">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
     <cellStyle name="20% - Accent1 2 2" xfId="50"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="84"/>
@@ -1714,6 +1728,20 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Good 2" xfId="31"/>
     <cellStyle name="Heading 1 2" xfId="32"/>
     <cellStyle name="Heading 2 2" xfId="33"/>
@@ -2192,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2249,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="65"/>
       <c r="Z5" s="35"/>
@@ -2259,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z6" s="35"/>
     </row>
@@ -2268,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z7" s="35"/>
     </row>
@@ -2277,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z8" s="35"/>
     </row>
@@ -2297,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z11" s="35"/>
       <c r="AA11" s="37" t="s">
@@ -2309,7 +2337,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z12" s="35"/>
       <c r="AA12" s="38" t="s">
@@ -2321,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z13" s="35"/>
       <c r="AA13" s="38" t="s">
@@ -2333,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z14" s="35"/>
       <c r="AA14" s="38" t="s">
@@ -2345,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z15" s="35"/>
       <c r="AA15" s="38" t="s">
@@ -2357,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z16" s="35"/>
       <c r="AA16" s="59" t="s">
@@ -2386,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z19" s="35"/>
       <c r="AA19" s="39"/>
@@ -2396,7 +2424,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z20" s="35"/>
       <c r="AA20" s="39"/>
@@ -2406,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z21" s="35"/>
       <c r="AA21" s="39"/>
@@ -2416,7 +2444,7 @@
         <v>70</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z22" s="35"/>
       <c r="AA22" s="39"/>
@@ -2571,19 +2599,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="104" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>166</v>
-      </c>
       <c r="F27" s="104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="104">
         <v>6</v>
@@ -2592,31 +2620,31 @@
         <v>145</v>
       </c>
       <c r="I27" s="104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="K27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M27" s="104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N27" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O27" s="45" t="s">
         <v>57</v>
       </c>
       <c r="P27" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R27" s="45">
         <v>1000</v>
@@ -2628,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="U27" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V27" s="107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W27" s="45">
         <v>77</v>
@@ -2640,46 +2668,46 @@
         <v>100</v>
       </c>
       <c r="Y27" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z27" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA27" s="45">
         <v>151</v>
       </c>
       <c r="AB27" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC27" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD27" s="45">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="AD27" s="45">
-        <v>8</v>
-      </c>
-      <c r="AE27" s="102" t="s">
+      <c r="AF27" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG27" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AF27" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG27" s="102" t="s">
+      <c r="AH27" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AH27" s="102" t="s">
+      <c r="AI27" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="AI27" s="108" t="s">
+      <c r="AJ27" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK27" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="AJ27" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK27" s="108" t="s">
-        <v>173</v>
-      </c>
       <c r="AL27" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
@@ -2687,23 +2715,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="104"/>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
       <c r="G28" s="104"/>
       <c r="H28" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="I28" s="104" t="s">
-        <v>177</v>
-      </c>
       <c r="J28" s="104" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>55</v>
@@ -2711,13 +2739,13 @@
       <c r="L28" s="104"/>
       <c r="M28" s="104"/>
       <c r="N28" s="104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O28" s="45" t="s">
         <v>57</v>
       </c>
       <c r="P28" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="102"/>
       <c r="R28" s="45">
@@ -2728,7 +2756,7 @@
       </c>
       <c r="T28" s="106"/>
       <c r="U28" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V28" s="107"/>
       <c r="W28" s="45">
@@ -2739,43 +2767,43 @@
       </c>
       <c r="Y28" s="45"/>
       <c r="Z28" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA28" s="45">
         <v>151</v>
       </c>
       <c r="AB28" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC28" s="102" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD28" s="45">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="AD28" s="45">
-        <v>8</v>
-      </c>
-      <c r="AE28" s="102" t="s">
+      <c r="AF28" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG28" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AF28" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG28" s="102" t="s">
+      <c r="AH28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AH28" s="102" t="s">
+      <c r="AI28" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="AI28" s="108" t="s">
+      <c r="AJ28" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK28" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="AJ28" s="108" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK28" s="108" t="s">
-        <v>173</v>
-      </c>
       <c r="AL28" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="14">

--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -597,14 +597,14 @@
   <si>
     <t>4442SFP7</t>
   </si>
+  <si>
+    <t>225-300</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1628,26 +1628,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -2220,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="I21" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2443,7 +2441,7 @@
       <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="101" t="s">
         <v>163</v>
       </c>
       <c r="Z22" s="35"/>
@@ -2481,7 +2479,7 @@
       <c r="AF25" s="21"/>
       <c r="AJ25" s="21"/>
     </row>
-    <row r="26" spans="1:40" s="15" customFormat="1" ht="78.75" customHeight="1">
+    <row r="26" spans="1:40" s="15" customFormat="1" ht="65" customHeight="1">
       <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2594,215 +2592,215 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="101">
+    <row r="27" spans="1:40" s="112" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="105">
         <v>1</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="104">
+      <c r="G27" s="108">
         <v>6</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="104" t="s">
+      <c r="I27" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="J27" s="104" t="s">
+      <c r="J27" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="104" t="s">
+      <c r="L27" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="104" t="s">
+      <c r="M27" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="N27" s="104" t="s">
+      <c r="N27" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="104" t="s">
+      <c r="P27" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="102" t="s">
+      <c r="Q27" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="S27" s="110">
+        <v>76</v>
+      </c>
+      <c r="T27" s="110">
+        <v>2</v>
+      </c>
+      <c r="U27" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="V27" s="111" t="s">
+        <v>180</v>
+      </c>
+      <c r="W27" s="109">
+        <v>77</v>
+      </c>
+      <c r="X27" s="109">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z27" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA27" s="109">
+        <v>151</v>
+      </c>
+      <c r="AB27" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC27" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD27" s="109">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF27" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG27" s="106" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH27" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI27" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ27" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK27" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL27" s="112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="112" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="105">
+        <v>1</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="O28" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="109">
         <v>1000</v>
       </c>
-      <c r="S27" s="105">
+      <c r="S28" s="110">
         <v>76</v>
       </c>
-      <c r="T27" s="106">
-        <v>2</v>
-      </c>
-      <c r="U27" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="V27" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="W27" s="45">
+      <c r="T28" s="110"/>
+      <c r="U28" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="V28" s="111"/>
+      <c r="W28" s="109">
         <v>77</v>
       </c>
-      <c r="X27" s="45">
+      <c r="X28" s="109">
         <v>100</v>
       </c>
-      <c r="Y27" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z27" s="102" t="s">
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="AA27" s="45">
+      <c r="AA28" s="109">
         <v>151</v>
       </c>
-      <c r="AB27" s="45" t="s">
+      <c r="AB28" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="AC27" s="102" t="s">
+      <c r="AC28" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="AD27" s="45">
-        <v>3</v>
-      </c>
-      <c r="AE27" s="102" t="s">
+      <c r="AD28" s="109">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="AF27" s="102" t="s">
+      <c r="AF28" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="AG27" s="102" t="s">
+      <c r="AG28" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="AH27" s="102" t="s">
+      <c r="AH28" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="AI27" s="108" t="s">
+      <c r="AI28" s="112" t="s">
         <v>171</v>
       </c>
-      <c r="AJ27" s="108" t="s">
+      <c r="AJ28" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="AK27" s="108" t="s">
+      <c r="AK28" s="112" t="s">
         <v>172</v>
       </c>
-      <c r="AL27" s="108" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="101">
-        <v>1</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" s="104" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="P28" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="45">
-        <v>1000</v>
-      </c>
-      <c r="S28" s="105">
-        <v>76</v>
-      </c>
-      <c r="T28" s="106"/>
-      <c r="U28" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="V28" s="107"/>
-      <c r="W28" s="45">
-        <v>77</v>
-      </c>
-      <c r="X28" s="45">
-        <v>100</v>
-      </c>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA28" s="45">
-        <v>151</v>
-      </c>
-      <c r="AB28" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC28" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD28" s="45">
-        <v>5</v>
-      </c>
-      <c r="AE28" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF28" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG28" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH28" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI28" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="AJ28" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="AK28" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL28" s="108" t="s">
+      <c r="AL28" s="112" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3440,13 +3438,13 @@
       <c r="A1" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="102"/>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="110"/>
+      <c r="B2" s="102"/>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="70" t="s">
@@ -3455,22 +3453,22 @@
       <c r="B3" s="69"/>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="103"/>
     </row>
     <row r="5" spans="1:2" ht="14">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="103"/>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="104"/>
     </row>
     <row r="7" spans="1:2" ht="13" thickBot="1">
       <c r="A7" s="71" t="s">

--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="191">
   <si>
     <t>Sample Kit Shipping Information</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>225-300</t>
+  </si>
+  <si>
+    <t>Sample Tube Barcode</t>
+  </si>
+  <si>
+    <t>4076255991</t>
+  </si>
+  <si>
+    <t>4076255992</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1493,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1629,12 +1638,6 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1646,6 +1649,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -2218,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2480,6 +2490,9 @@
       <c r="AJ25" s="21"/>
     </row>
     <row r="26" spans="1:40" s="15" customFormat="1" ht="65" customHeight="1">
+      <c r="A26" s="112" t="s">
+        <v>188</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
@@ -2592,215 +2605,215 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="112" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="105">
-        <v>1</v>
-      </c>
-      <c r="B27" s="106" t="s">
+    <row r="27" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="107" t="s">
+      <c r="C27" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="108">
+      <c r="G27" s="104">
         <v>6</v>
       </c>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="J27" s="108" t="s">
+      <c r="J27" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="109" t="s">
+      <c r="K27" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="108" t="s">
+      <c r="L27" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="M27" s="108" t="s">
+      <c r="M27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="N27" s="108" t="s">
+      <c r="N27" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="109" t="s">
+      <c r="O27" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="108" t="s">
+      <c r="P27" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="Q27" s="106" t="s">
+      <c r="Q27" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="R27" s="106" t="s">
+      <c r="R27" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="S27" s="110">
+      <c r="S27" s="106">
         <v>76</v>
       </c>
-      <c r="T27" s="110">
+      <c r="T27" s="106">
         <v>2</v>
       </c>
-      <c r="U27" s="106" t="s">
+      <c r="U27" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="V27" s="111" t="s">
+      <c r="V27" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="W27" s="109">
+      <c r="W27" s="105">
         <v>77</v>
       </c>
-      <c r="X27" s="109">
+      <c r="X27" s="105">
         <v>100</v>
       </c>
-      <c r="Y27" s="106" t="s">
+      <c r="Y27" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="Z27" s="106" t="s">
+      <c r="Z27" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AA27" s="109">
+      <c r="AA27" s="105">
         <v>151</v>
       </c>
-      <c r="AB27" s="109" t="s">
+      <c r="AB27" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="AC27" s="106" t="s">
+      <c r="AC27" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="AD27" s="109">
+      <c r="AD27" s="105">
         <v>3</v>
       </c>
-      <c r="AE27" s="106" t="s">
+      <c r="AE27" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="AF27" s="106" t="s">
+      <c r="AF27" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="AG27" s="106" t="s">
+      <c r="AG27" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AH27" s="106" t="s">
+      <c r="AH27" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AI27" s="112" t="s">
+      <c r="AI27" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="AJ27" s="112" t="s">
+      <c r="AJ27" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="AK27" s="112" t="s">
+      <c r="AK27" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="AL27" s="112" t="s">
+      <c r="AL27" s="108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="112" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="105">
-        <v>1</v>
-      </c>
-      <c r="B28" s="106" t="s">
+    <row r="28" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="107" t="s">
+      <c r="C28" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108" t="s">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="J28" s="108" t="s">
+      <c r="J28" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="K28" s="109" t="s">
+      <c r="K28" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108" t="s">
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="O28" s="109" t="s">
+      <c r="O28" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="108" t="s">
+      <c r="P28" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="109">
+      <c r="Q28" s="102"/>
+      <c r="R28" s="105">
         <v>1000</v>
       </c>
-      <c r="S28" s="110">
+      <c r="S28" s="106">
         <v>76</v>
       </c>
-      <c r="T28" s="110"/>
-      <c r="U28" s="106" t="s">
+      <c r="T28" s="106"/>
+      <c r="U28" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="V28" s="111"/>
-      <c r="W28" s="109">
+      <c r="V28" s="107"/>
+      <c r="W28" s="105">
         <v>77</v>
       </c>
-      <c r="X28" s="109">
+      <c r="X28" s="105">
         <v>100</v>
       </c>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="106" t="s">
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AA28" s="109">
+      <c r="AA28" s="105">
         <v>151</v>
       </c>
-      <c r="AB28" s="109" t="s">
+      <c r="AB28" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="AC28" s="106" t="s">
+      <c r="AC28" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="AD28" s="109">
+      <c r="AD28" s="105">
         <v>5</v>
       </c>
-      <c r="AE28" s="106" t="s">
+      <c r="AE28" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="AF28" s="106" t="s">
+      <c r="AF28" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="AG28" s="106" t="s">
+      <c r="AG28" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AH28" s="106" t="s">
+      <c r="AH28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AI28" s="112" t="s">
+      <c r="AI28" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="AJ28" s="112" t="s">
+      <c r="AJ28" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="AK28" s="112" t="s">
+      <c r="AK28" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="AL28" s="112" t="s">
+      <c r="AL28" s="108" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3438,13 +3451,13 @@
       <c r="A1" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="109"/>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="109"/>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="70" t="s">
@@ -3453,22 +3466,22 @@
       <c r="B3" s="69"/>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="110"/>
     </row>
     <row r="5" spans="1:2" ht="14">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="110"/>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="111"/>
     </row>
     <row r="7" spans="1:2" ht="13" thickBot="1">
       <c r="A7" s="71" t="s">

--- a/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
+++ b/mercury/src/test/resources/testdata/ExternalLibraryPooledTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1160" windowWidth="17920" windowHeight="7460"/>
+    <workbookView xWindow="520" yWindow="1340" windowWidth="17920" windowHeight="7460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,9 +559,6 @@
     <t>Patient X</t>
   </si>
   <si>
-    <t>NovaSeq</t>
-  </si>
-  <si>
     <t>DDDSS2245</t>
   </si>
   <si>
@@ -608,6 +605,9 @@
   </si>
   <si>
     <t>4076255992</t>
+  </si>
+  <si>
+    <t>NovaSeq S2</t>
   </si>
 </sst>
 </file>
@@ -1649,13 +1649,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1 2" xfId="8"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2490,8 +2490,8 @@
       <c r="AJ25" s="21"/>
     </row>
     <row r="26" spans="1:40" s="15" customFormat="1" ht="65" customHeight="1">
-      <c r="A26" s="112" t="s">
-        <v>188</v>
+      <c r="A26" s="109" t="s">
+        <v>187</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>71</v>
@@ -2606,23 +2606,23 @@
       </c>
     </row>
     <row r="27" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="113" t="s">
-        <v>189</v>
+      <c r="A27" s="110" t="s">
+        <v>188</v>
       </c>
       <c r="B27" s="102" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C27" s="103" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="104" t="s">
         <v>165</v>
       </c>
       <c r="F27" s="104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="104">
         <v>6</v>
@@ -2634,16 +2634,16 @@
         <v>173</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K27" s="105" t="s">
         <v>55</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M27" s="104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N27" s="104" t="s">
         <v>147</v>
@@ -2658,7 +2658,7 @@
         <v>146</v>
       </c>
       <c r="R27" s="102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S27" s="106">
         <v>76</v>
@@ -2667,10 +2667,10 @@
         <v>2</v>
       </c>
       <c r="U27" s="102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V27" s="107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="W27" s="105">
         <v>77</v>
@@ -2679,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="Y27" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z27" s="102" t="s">
         <v>166</v>
@@ -2700,7 +2700,7 @@
         <v>168</v>
       </c>
       <c r="AF27" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG27" s="102" t="s">
         <v>169</v>
@@ -2722,11 +2722,11 @@
       </c>
     </row>
     <row r="28" spans="1:40" s="108" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="113" t="s">
+      <c r="A28" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="102" t="s">
         <v>190</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>174</v>
       </c>
       <c r="C28" s="103" t="s">
         <v>164</v>
@@ -2736,13 +2736,13 @@
       <c r="F28" s="104"/>
       <c r="G28" s="104"/>
       <c r="H28" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="104" t="s">
-        <v>176</v>
-      </c>
       <c r="J28" s="104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K28" s="105" t="s">
         <v>55</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="T28" s="106"/>
       <c r="U28" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V28" s="107"/>
       <c r="W28" s="105">
@@ -2796,7 +2796,7 @@
         <v>168</v>
       </c>
       <c r="AF28" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG28" s="102" t="s">
         <v>169</v>
@@ -3451,13 +3451,13 @@
       <c r="A1" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:2" ht="14">
       <c r="A2" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="111"/>
     </row>
     <row r="3" spans="1:2" ht="14">
       <c r="A3" s="70" t="s">
@@ -3466,22 +3466,22 @@
       <c r="B3" s="69"/>
     </row>
     <row r="4" spans="1:2" ht="14">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="112"/>
     </row>
     <row r="5" spans="1:2" ht="14">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="110"/>
+      <c r="B5" s="112"/>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="111"/>
+      <c r="B6" s="113"/>
     </row>
     <row r="7" spans="1:2" ht="13" thickBot="1">
       <c r="A7" s="71" t="s">
